--- a/Assets/Resources/MasterBuilder/Localize.xlsx
+++ b/Assets/Resources/MasterBuilder/Localize.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve">ja-JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version:</t>
   </si>
 </sst>
 </file>
@@ -268,6 +271,14 @@
     <col min="6" max="6" width="23.4375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="3">
       <c r="C3" t="s">
         <v>0</v>

--- a/Assets/Resources/MasterBuilder/Localize.xlsx
+++ b/Assets/Resources/MasterBuilder/Localize.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="17">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">Version:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
   </si>
 </sst>
 </file>

--- a/Assets/Resources/MasterBuilder/Localize.xlsx
+++ b/Assets/Resources/MasterBuilder/Localize.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="17">
   <si>
     <t xml:space="preserve">ClassName:</t>
   </si>
@@ -279,7 +279,7 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
